--- a/biology/Botanique/Crataegus/Crataegus.xlsx
+++ b/biology/Botanique/Crataegus/Crataegus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crataegus
 Cratægus est un genre de plantes à fleurs de la famille des Rosacées, communément appelés des aubépines. Ce sont des arbres ou des arbustes épineux de l'hémisphère nord.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot cratægus est issu du latin, transcrit du mot grec κράταιγος / krátaigos, « épine, néflier », composé de κράτος / krátos signifiant « force » (allusion à la dureté du bois).
 </t>
@@ -544,15 +558,52 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre a été décrit en 1753 par le naturaliste suédois Carl von Linné (1707-1778). 
-En classification phylogénétique APG III (2009)[3], comme c'était déjà le cas en classification classique de Cronquist (1981)[4], le genre Crataegus est assigné à la famille des Rosaceae.
-Le nombre d'espèces appartenant au genre est difficile à déterminer compte tenu de la facilité avec laquelle les différentes espèces d'aubépines s'hybrident entre elles en générant des variétés polyploïdes se reproduisant par apomixie. La classification dépend donc des différentes interprétations taxonomiques et varie de 200 à 1 200 espèces[5], sans compter les cultivars ornementaux.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit en 1753 par le naturaliste suédois Carl von Linné (1707-1778). 
+En classification phylogénétique APG III (2009), comme c'était déjà le cas en classification classique de Cronquist (1981), le genre Crataegus est assigné à la famille des Rosaceae.
+Le nombre d'espèces appartenant au genre est difficile à déterminer compte tenu de la facilité avec laquelle les différentes espèces d'aubépines s'hybrident entre elles en générant des variétés polyploïdes se reproduisant par apomixie. La classification dépend donc des différentes interprétations taxonomiques et varie de 200 à 1 200 espèces, sans compter les cultivars ornementaux.
 			Etude de fruits d'aubépine, début du 20è siècle, Henri Bergé, Musée de l'Ecole de Nancy.
 			Etude d'aubépine épineuse, début du 20è siècle, Henri Bergé, Musée de l'Ecole de Nancy.
-Espèces européennes
-En France, les espèces le plus souvent rencontrées sont Crataegus laevigata et Crataegus monogyna.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Crataegus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crataegus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces européennes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En France, les espèces le plus souvent rencontrées sont Crataegus laevigata et Crataegus monogyna.
 Crataegus laevigata est plus précoce et possède des feuilles à 3 lobes moins découpées que Crataegus monogyna. Ces deux espèces s'hybrident cependant spontanément. Crataegus monogyna possède des fleurs à un seul style et des fruits à un seul noyau qui ressemblent à de petites pommes.
 Crataegus altaica
 Crataegus ambigua
@@ -573,9 +624,43 @@
 Crataegus pycnoloba
 Crataegus sanguinea
 Crataegus schraderana
-Crataegus sphaenophylla
-Liste d'espèces
-Selon GRIN            (11 septembre 2018)[6] :
+Crataegus sphaenophylla</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Crataegus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crataegus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (11 septembre 2018) :
 Crataegus aemula Beadle
 Crataegus aestivalis (Walter) Torr. &amp; A. Gray
 Crataegus alabamensis Beadle
@@ -697,7 +782,7 @@
 Crataegus viridis L.
 Crataegus wattiana Hemsl. &amp; Lace
 Crataegus wilsonii Sarg.
-Selon The Plant List            (11 septembre 2018)[7] :
+Selon The Plant List            (11 septembre 2018) :
 Crataegus aberrans (Lange) K.I.Chr.
 Crataegus acutiserrata Kruschke
 Crataegus aemula Beadle
@@ -1079,7 +1164,7 @@
 Crataegus xanthophylla Sarg.
 Crataegus zangezura Pojark.
 Espèces, hybrides et synonymes selon Tropicos
-Selon Tropicos                                           (11 septembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 septembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Crataegus abbreviata Sarg.
 Crataegus abdita Beadle
 Crataegus abjecta Sarg.
@@ -1703,86 +1788,74 @@
 Crataegus integriloba Sarg.
 Crataegus interior Beadle
 Crataegus intermixta Beck
-Crata</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Crataegus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Crataegus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Aubépines remarquables</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bouquetot (Eure)
-L'aubépine de Bouquetot, dans l'Eure, passe pour être une des plus anciennes de France, ayant été plantée près de l'église du village vers 1360.
-Saint-Mars-sur-la-Futaie (Mayenne)
-La plaque commémorative déclare que cet arbre serait « le plus vieux de France », daté, selon la tradition locale, du IIIe siècle.
-Soulcoudus
-Dans les années 1970, un facétieux jardinier municipal de la ville de Vigo en Espagne, Miguel Sulcudor, s’était passionné pour les greffes sur les aubépines. Sur des bases de Crataegus monogyna, il greffait de l’aubépine rose, du poirier, du néflier, en mélangeant sur un même arbre ces variétés. Il produisait ainsi des arbres qui donnaient des fruits d’un côté et des fleurs de l’autre. Il réalisait aussi des greffes en écusson sur un même tronc en panachant aubépine rose, poirier, néflier, ce qui donnait des arbres où chaque branche était différente. Il donna à ces créations le nom de Sulcudus et plusieurs dizaines de ce type d’arbres furent plantées dans les différents parcs et jardins de la ville. Faute d’entretien, beaucoup de ces arbres ont dégénéré et seul subsiste le greffon d’aubépine rose qui a supplanté le reste ; néanmoins, on peut encore admirer quelques magnifiques spécimens de Sulcudus dans le parc de Pontevedra où chaque année au mois de mai, ces arbres se couvrent de fleurs roses et blanches (aubépine et poirier) et qui dès août produisent profusions de belles poires pour le bonheur des promeneurs. En France, des greffeurs amateurs se sont inspirés des créations de Miguel Sulcudor et l'on peut trouver, notamment en Bretagne, sous le nom de « Soulcoudus » des aubépines donnant plusieurs sortes de fleurs et de fruits sur un même arbre.
-[réf. nécessaire]
-Glastonbury Thorn
-La légende autour de l'aubépine de Glastonbury est chrétienne. Joseph d'Arimathie aurait planté son bâton sur la colline de Wearyall (Wearyall Hill) où il poussa pour devenir une magnifique aubépine. Cette aubépine est mentionnée pour la première fois dans Lyfe of Joseph of Arimathea [la vie anglo-saxonne en vers de Joseph d'Arématie] qui date du XVIe siècle. Cette aubépine fleurissait deux fois l'an. Une floraison peu après le solstice d'hiver sur le « vieux bois » et un autre au printemps sur le « jeune bois ». La floraison de l'hiver était considérée comme un miracle.
-Glastonbury.—A vast concourse of people attended the noted thorn on Christmas-day, new style; but, to their great disappointment, there was no appearance of its blowing, which made them watch it narrowly the 5th of January, the Christmas-day, old style, when it blowed as usual.[8]
-[Glastonbury.- Une foule de gens s'attendaient à voir le bouton fameux le jour de Noël, date moderne[Note 1] mais à leur grande déception il n'y avait aucune trace de sa floraison, c'est pour cette raison qu'ils la scrutaient anxieusement le 5 janvier, Noël ancien temps, et là elle fleurissait comme d'habitude.]
-L'arbre fut abattu pendant la Première Révolution anglaise au milieu du XVIIe siècle. Un autre fut planté à sa place en 1951 mais celui-ci fut vandalisé en 2010[9].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Crataegus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Crataegus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Usages</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Propriétés médicinales
-Les fleurs sont utilisées comme hypotenseur, antispasmodique et sédatif.
-Les feuilles sont en revanche tonicardiaques. Il est donc préférable de ne pas mélanger feuilles et fleurs dans une même infusion ou tisane.[réf. nécessaire]
-Autres usages
-Les fruits ont parfois été consommés en compote ou utilisés pour réaliser des confitures.
-Les peuples natifs de l'ouest du Canada utilisaient les épines comme hameçons.
-L'arbuste à proximité des fermes bretonnes avait une fonction de porte-bonheur[Note 2].
-</t>
+Crataegus intricata Lange
+Crataegus inusitula Sarg.
+Crataegus invicta Beadle
+Crataegus invisa Sarg.
+Crataegus iracunda Beadle
+Crataegus irrasa Sarg.
+Crataegus isfajramensis Pachom.
+Crataegus iterata Sarg.
+Crataegus jackii Sarg.
+Crataegus jasperensis Sarg.
+Crataegus jejuna Sarg.
+Crataegus jenningsii Sarg.
+Crataegus jesupii Sarg.
+Crataegus johnstonii J.B. Phipps
+Crataegus jonesiae Sarg.
+Crataegus jozana C.K. Schneid.
+Crataegus kansuensis E.H. Wilson
+Crataegus karadaghensis Pojark.
+Crataegus keepii Sarg.
+Crataegus kellermanii Sarg.
+Crataegus kelloggii Sarg.
+Crataegus kennedyi Sarg.
+Crataegus kingstonensis Sarg.
+Crataegus kinzerae Sarg.
+Crataegus klokovii Ivaschin
+Crataegus knieskerniana Sarg.
+Crataegus knorringiana Pojark.
+Crataegus komarovii Sarg.
+Crataegus korolkowii L. Henry
+Crataegus kulingensis Sarg.
+Crataegus kyrtostyla auct.
+Crataegus lacera Sarg.
+Crataegus laciniata Ucria
+Crataegus lacrimata Small
+Crataegus laculenta Sarg.
+Crataegus laetans Sarg.
+Crataegus laetifica Sarg.
+Crataegus laetula Sarg.
+Crataegus laevicalyx J.X. Huang, L.Y. Sun &amp; T.J. Feng
+Crataegus laevigata (Poir.) DC.
+Crataegus lanata Beadle
+Crataegus lancei J.B. Phipps
+Crataegus lanceolata Sarg.
+Crataegus laneyi Sarg.
+Crataegus lanigera Sarg.
+Crataegus lanuginosa Sarg.
+Crataegus larga Sarg.
+Crataegus lasiantha Sarg.
+Crataegus lasiocarpa Lange
+Crataegus lassa Beadle
+Crataegus lata Sarg.
+Crataegus latebrosa Sarg.
+Crataegus latiflora Sarg.
+Crataegus latifrons Sarg.
+Crataegus latisepala Ashe
+Crataegus laurentiana Sarg.
+Crataegus lauta Sarg.
+Crataegus laxa Beadle
+Crataegus laxiflora Sarg.
+Crataegus lecta Sarg.
+Crataegus leimonia Sarg.
+Crataegus leioclada Sarg.
+Crataegus leiomonogyna Klokov
+Crataegus leiophylla Sarg.
+Crataegus lemingtonensis Sarg.
+Crataegus lenis Beadle
+Crataegus lennoniana Sarg.
+Crataegu</t>
         </is>
       </c>
     </row>
@@ -1807,14 +1880,136 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ennemis</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Le champignon Taphrina crataegi (ascomycète) produit des cloques, boursoufflures roussâtres sur les feuilles.
-La chenille du papillon de jour (rhopalocère) suivant se nourrit d'Aubépine :
-Gazé, piéride de l'aubépine Aporia crataegi (Pieridae).</t>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Catégorie
+Section ou Nothosection
+Série ou Nothosérie
+Espèce
+Crataegus
+Mexicanae
+Mexicanae
+Crataegus mexicana DC.
+Henryanae
+Crataegus scabrifolia
+Parvifoliae
+Crataegus uniflora Muenchh.
+Crataegus
+Crataegus
+Crataegus caucasica
+Crataegus laevigata (Poir.) DC.
+macrocarpa Hegetschw.
+media Bechst.
+Crataegus monogyna Jacq.
+Crataegus rhipidophylla Gand.
+Crataegus songarica
+Crataegus subsphaericea Gand.
+Apiifoliae
+Crataegus marshallii Egglest.
+Pentagynae
+Crataegus pentagyna Waldst. &amp; Kit. ex Willd.
+Azaroli (Orientales + Tanacetifoliae)
+Crataegus azarolus L.
+Crataegus heldreichii
+Crataegus orientalis Pall. ex M. Bieb.
+Pinnatifidae
+pinnatifida Bunge
+Tanacetifoliae (Azaroli — Orientales)
+Crataegynae (Crataegus × Pentagynae)
+zangezura
+Orientaegus (Crataegus × Azaroli)
+Crataegifoliae (Crataegus × Tanacetifoliae)
+Orientagynae (Azaroli × Pentagynae)
+pseudoazarolus
+Tanacetitales (Tanacetifoliae × Azaroli)
+Sanguineae
+Nigrae
+chlorosarca Maxim.
+kansuensis E.H. Wilson
+Crataegus nigra Waldst. &amp; Kit.
+Sanguineae
+sanguinea Pall.
+Hupehensis
+Hupehenses
+hupehensis
+shensiensis
+Cuneatae
+Cuneatae
+cuneata Siebold &amp; Zucc.
+Cordatae
+Cordatae
+phaenopyrum (L. f.) Medik.
+Virides
+Virides
+nitida (Engelm.) Sarg.
+Microcarpae
+Microcarpae
+spathulata Michx.
+Lacrimatae
+Lacrimatae
+lacrimata Small
+Aestivales
+Aestivales
+aestivalis (Walt.) Torr. &amp; A.Gray
+Brevispinae
+Brevispinae
+Douglasianae
+Douglasii
+douglasii Lindl.
+suksdorfii (Sarg.) Kruschke
+Crus-galli
+Crus-galli
+Crataegus crus-galli L. - Aubépine ergot de Coq
+persimilis Sarg.
+Punctatae
+collina
+punctata Jacq.
+Coccineae
+Triflorae
+triflora Chapman
+Bracteatae
+Molles
+mollis Scheele
+submollis Sarg.
+Coccineae
+holmesiana Ashe
+pedicellata Sarg.
+Tenuifoliae
+macrosperma Ashe
+schuettei Ashe
+Rotundifoliae
+chrysocarpa Ashe
+dodgei Ashe
+Intricatae
+boyntonii
+sargentii Beadle
+Pulcherrimae
+pulcherrima Ashe
+Brainerdianae
+scabrida Sarg.
+sylvestris
+Macracanthae
+calpodendron
+macracantha
+Silvicolae
+compacta Sarg.
+iracunda Beadle
+Suborbiculatae
+suborbiculata Sarg.
+Pruinosae
+dissona Sarg.
+pruinosa (Wendl. f.) K. Koch
+Dilatatae
+coccinioides Ashe</t>
         </is>
       </c>
     </row>
@@ -1839,12 +2034,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Maladies</t>
+          <t>Aubépines remarquables</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Les aubépines sont sensibles au feu bactérien (Erwinia amylovora)[11],[12].</t>
+          <t>Bouquetot (Eure)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aubépine de Bouquetot, dans l'Eure, passe pour être une des plus anciennes de France, ayant été plantée près de l'église du village vers 1360.
+</t>
         </is>
       </c>
     </row>
@@ -1869,23 +2071,389 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Aubépines remarquables</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Saint-Mars-sur-la-Futaie (Mayenne)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plaque commémorative déclare que cet arbre serait « le plus vieux de France », daté, selon la tradition locale, du IIIe siècle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Crataegus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crataegus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Aubépines remarquables</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Soulcoudus</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Dans les années 1970, un facétieux jardinier municipal de la ville de Vigo en Espagne, Miguel Sulcudor, s’était passionné pour les greffes sur les aubépines. Sur des bases de Crataegus monogyna, il greffait de l’aubépine rose, du poirier, du néflier, en mélangeant sur un même arbre ces variétés. Il produisait ainsi des arbres qui donnaient des fruits d’un côté et des fleurs de l’autre. Il réalisait aussi des greffes en écusson sur un même tronc en panachant aubépine rose, poirier, néflier, ce qui donnait des arbres où chaque branche était différente. Il donna à ces créations le nom de Sulcudus et plusieurs dizaines de ce type d’arbres furent plantées dans les différents parcs et jardins de la ville. Faute d’entretien, beaucoup de ces arbres ont dégénéré et seul subsiste le greffon d’aubépine rose qui a supplanté le reste ; néanmoins, on peut encore admirer quelques magnifiques spécimens de Sulcudus dans le parc de Pontevedra où chaque année au mois de mai, ces arbres se couvrent de fleurs roses et blanches (aubépine et poirier) et qui dès août produisent profusions de belles poires pour le bonheur des promeneurs. En France, des greffeurs amateurs se sont inspirés des créations de Miguel Sulcudor et l'on peut trouver, notamment en Bretagne, sous le nom de « Soulcoudus » des aubépines donnant plusieurs sortes de fleurs et de fruits sur un même arbre.
+[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Crataegus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crataegus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Aubépines remarquables</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Glastonbury Thorn</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La légende autour de l'aubépine de Glastonbury est chrétienne. Joseph d'Arimathie aurait planté son bâton sur la colline de Wearyall (Wearyall Hill) où il poussa pour devenir une magnifique aubépine. Cette aubépine est mentionnée pour la première fois dans Lyfe of Joseph of Arimathea [la vie anglo-saxonne en vers de Joseph d'Arématie] qui date du XVIe siècle. Cette aubépine fleurissait deux fois l'an. Une floraison peu après le solstice d'hiver sur le « vieux bois » et un autre au printemps sur le « jeune bois ». La floraison de l'hiver était considérée comme un miracle.
+Glastonbury.—A vast concourse of people attended the noted thorn on Christmas-day, new style; but, to their great disappointment, there was no appearance of its blowing, which made them watch it narrowly the 5th of January, the Christmas-day, old style, when it blowed as usual.
+[Glastonbury.- Une foule de gens s'attendaient à voir le bouton fameux le jour de Noël, date moderne[Note 1] mais à leur grande déception il n'y avait aucune trace de sa floraison, c'est pour cette raison qu'ils la scrutaient anxieusement le 5 janvier, Noël ancien temps, et là elle fleurissait comme d'habitude.]
+L'arbre fut abattu pendant la Première Révolution anglaise au milieu du XVIIe siècle. Un autre fut planté à sa place en 1951 mais celui-ci fut vandalisé en 2010.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Crataegus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crataegus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Propriétés médicinales</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont utilisées comme hypotenseur, antispasmodique et sédatif.
+Les feuilles sont en revanche tonicardiaques. Il est donc préférable de ne pas mélanger feuilles et fleurs dans une même infusion ou tisane.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Crataegus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crataegus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres usages</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits ont parfois été consommés en compote ou utilisés pour réaliser des confitures.
+Les peuples natifs de l'ouest du Canada utilisaient les épines comme hameçons.
+L'arbuste à proximité des fermes bretonnes avait une fonction de porte-bonheur[Note 2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Crataegus</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crataegus</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Ennemis</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le champignon Taphrina crataegi (ascomycète) produit des cloques, boursoufflures roussâtres sur les feuilles.
+La chenille du papillon de jour (rhopalocère) suivant se nourrit d'Aubépine :
+Gazé, piéride de l'aubépine Aporia crataegi (Pieridae).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Crataegus</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crataegus</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Maladies</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Les aubépines sont sensibles au feu bactérien (Erwinia amylovora),.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Crataegus</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crataegus</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>L'aubépine dans l'imaginaire collectif</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Symbolique et ésotérisme
-Depuis l'Antiquité, l'aubépine symbolise l'innocence et la pureté virginale. Chez les chrétiens elle est liée à la Vierge Marie.
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Symbolique et ésotérisme</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Depuis l'Antiquité, l'aubépine symbolise l'innocence et la pureté virginale. Chez les chrétiens elle est liée à la Vierge Marie.
 On dit que la foudre ne l'atteint jamais.
 On dit qu'elle est très liée aux pratiques de sorcellerie du mois de mai. Dans le Nivernais, on fixe dans la nuit du 30 avril, une branche de celle-ci à l'entrée des écuries et des étables, afin d'empêcher les araignées dites sorcières d'y pénétrer.
-L'aubépine est donc liée au premier mai ou à la veille du premier mai. Ceci est peut-être dû au nom gaelique (celtique) de l'aubépine qui est "Buisson de Beltaine"[13].
-La branche d'aubépine bien épointée serait souveraine contre les vampires quand elle leur transpercerait le cœur.
-Langage des fleurs
-Dans le langage des fleurs, l'aubépine symbolise la prudence et l'espérance[14].
-Calendrier républicain
-Dans le calendrier républicain, l'Aubépine était le nom attribué au 4e jour du mois de floréal[15].
-Littérature et chanson
-L'aubépine est l'objet de plusieurs poèmes, notamment des poètes Pierre de Ronsard et Rémy de Gourmont.
+L'aubépine est donc liée au premier mai ou à la veille du premier mai. Ceci est peut-être dû au nom gaelique (celtique) de l'aubépine qui est "Buisson de Beltaine".
+La branche d'aubépine bien épointée serait souveraine contre les vampires quand elle leur transpercerait le cœur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Crataegus</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crataegus</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>L'aubépine dans l'imaginaire collectif</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, l'aubépine symbolise la prudence et l'espérance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Crataegus</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crataegus</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>L'aubépine dans l'imaginaire collectif</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Dans le calendrier républicain, l'Aubépine était le nom attribué au 4e jour du mois de floréal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Crataegus</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crataegus</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>L'aubépine dans l'imaginaire collectif</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Littérature et chanson</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>L'aubépine est l'objet de plusieurs poèmes, notamment des poètes Pierre de Ronsard et Rémy de Gourmont.
 Les aubépines tiennent un rôle central dans À la recherche du temps perdu de Marcel Proust, notamment dans Combray : « Je revenais devant les aubépines comme devant ces chefs-d'œuvre dont on croit qu'on saura mieux les voir quand on a cessé un moment de les regarder, mais j'avais beau me faire un écran de mes mains pour n'avoir qu'elles sous les yeux, le sentiment qu'elles éveillaient en moi restait obscur et vague, cherchant en vain à se dégager, à venir adhérer à leurs fleurs. Elles ne m'aidaient pas à l'éclaircir, et je ne pouvais demander à d'autres fleurs de le satisfaire. »
 Marc Lavoine a interprété la chanson Rue des Acacias où il fait référence à une «rue des aubépines».
 Ycare a intitulé l'une de ses chansons Aubépine.
